--- a/Liver_Cancer/hits.xlsx
+++ b/Liver_Cancer/hits.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="460" windowWidth="28800" windowHeight="26340" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="5080" yWindow="460" windowWidth="28800" windowHeight="26340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="416">
   <si>
     <t>TCGA vs. PT</t>
   </si>
@@ -1167,13 +1167,127 @@
   </si>
   <si>
     <t xml:space="preserve">Recurrent Tumour </t>
+  </si>
+  <si>
+    <t>MT1G</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>CYP3A4</t>
+  </si>
+  <si>
+    <t>HSD17B13</t>
+  </si>
+  <si>
+    <t>SLC25A47</t>
+  </si>
+  <si>
+    <t>AC104809.1</t>
+  </si>
+  <si>
+    <t>SLITRK3</t>
+  </si>
+  <si>
+    <t>THRSP</t>
+  </si>
+  <si>
+    <t>CYP2A7</t>
+  </si>
+  <si>
+    <t>UROC1</t>
+  </si>
+  <si>
+    <t>HAO2</t>
+  </si>
+  <si>
+    <t>SLC22A1</t>
+  </si>
+  <si>
+    <t>APOF</t>
+  </si>
+  <si>
+    <t>FAM99A</t>
+  </si>
+  <si>
+    <t>CYP2A6</t>
+  </si>
+  <si>
+    <t>ADH4</t>
+  </si>
+  <si>
+    <t>MT1E</t>
+  </si>
+  <si>
+    <t>EPS8L3</t>
+  </si>
+  <si>
+    <t>GLYAT</t>
+  </si>
+  <si>
+    <t>ASPG</t>
+  </si>
+  <si>
+    <t>MOGAT2</t>
+  </si>
+  <si>
+    <t>HEPACAM</t>
+  </si>
+  <si>
+    <t>HGFAC</t>
+  </si>
+  <si>
+    <t>AC010547.2</t>
+  </si>
+  <si>
+    <t>SLC6A19</t>
+  </si>
+  <si>
+    <t>GCGR</t>
+  </si>
+  <si>
+    <t>FOLH1B</t>
+  </si>
+  <si>
+    <t>CYP2E1</t>
+  </si>
+  <si>
+    <t>MUC6</t>
+  </si>
+  <si>
+    <t>LINC00844</t>
+  </si>
+  <si>
+    <t>MFSD2A</t>
+  </si>
+  <si>
+    <t>AVPR1A</t>
+  </si>
+  <si>
+    <t>GYS2</t>
+  </si>
+  <si>
+    <t>NMRAL2P</t>
+  </si>
+  <si>
+    <t>LINC01018</t>
+  </si>
+  <si>
+    <t>OXT</t>
+  </si>
+  <si>
+    <t>MT1X</t>
+  </si>
+  <si>
+    <t>Voom (ordered by lfc)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1250,6 +1364,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
@@ -1456,7 +1576,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1554,8 +1674,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1634,13 +1758,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1683,8 +1807,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1733,6 +1859,8 @@
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1781,6 +1909,8 @@
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1796,255 +1926,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Right Brace 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2603500" y="571500"/>
-          <a:ext cx="508000" cy="12255500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Right Brace 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11112500" y="520700"/>
-          <a:ext cx="508000" cy="15405100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1651000</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3124200" y="6324600"/>
-          <a:ext cx="1130300" cy="838200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>69 genes were identified</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> as significant by all techniques</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1651000</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7543800" y="6883400"/>
-          <a:ext cx="1130300" cy="838200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>76 genes were identified</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> as significant by all techniques</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2310,11 +2191,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="AC85" sqref="AC85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2322,15 +2203,17 @@
     <col min="1" max="1" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="9" max="10" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="11" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="68" t="s">
         <v>377</v>
       </c>
@@ -2338,16 +2221,17 @@
       <c r="C1" s="68"/>
       <c r="D1" s="68"/>
       <c r="E1" s="68"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="68" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="H1" s="68"/>
       <c r="I1" s="68"/>
       <c r="J1" s="68"/>
       <c r="K1" s="68"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L1" s="68"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>101</v>
       </c>
@@ -2359,30 +2243,33 @@
         <v>300</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="K2" s="37" t="s">
         <v>310</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="L2" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>44</v>
       </c>
@@ -2394,30 +2281,33 @@
         <v>31</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="K3" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -2429,30 +2319,33 @@
         <v>64</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="K4" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>34</v>
       </c>
@@ -2464,30 +2357,33 @@
         <v>50</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="37" t="s">
-        <v>172</v>
-      </c>
+      <c r="I5" s="6"/>
       <c r="J5" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>68</v>
       </c>
@@ -2499,30 +2395,33 @@
         <v>60</v>
       </c>
       <c r="E6" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="37" t="s">
-        <v>124</v>
-      </c>
+      <c r="I6" s="6"/>
       <c r="J6" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
@@ -2534,30 +2433,33 @@
         <v>34</v>
       </c>
       <c r="E7" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="6"/>
+      <c r="J7" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="K7" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="L7" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="3"/>
+      <c r="P7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
@@ -2569,30 +2471,33 @@
         <v>27</v>
       </c>
       <c r="E8" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="37" t="s">
-        <v>147</v>
-      </c>
+      <c r="I8" s="6"/>
       <c r="J8" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="3"/>
+      <c r="P8" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -2604,30 +2509,33 @@
         <v>18</v>
       </c>
       <c r="E9" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="37" t="s">
-        <v>150</v>
-      </c>
+      <c r="I9" s="6"/>
       <c r="J9" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="3"/>
+      <c r="P9" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
@@ -2639,30 +2547,33 @@
         <v>204</v>
       </c>
       <c r="E10" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="6"/>
+      <c r="J10" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="K10" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="3"/>
+      <c r="P10" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
@@ -2674,30 +2585,33 @@
         <v>83</v>
       </c>
       <c r="E11" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="38" t="s">
-        <v>183</v>
-      </c>
+      <c r="I11" s="6"/>
       <c r="J11" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>94</v>
       </c>
@@ -2709,30 +2623,33 @@
         <v>39</v>
       </c>
       <c r="E12" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="37" t="s">
-        <v>178</v>
-      </c>
+      <c r="I12" s="6"/>
       <c r="J12" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>58</v>
       </c>
@@ -2744,30 +2661,33 @@
         <v>71</v>
       </c>
       <c r="E13" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="6"/>
+      <c r="J13" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="L13" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>81</v>
       </c>
@@ -2779,30 +2699,33 @@
         <v>63</v>
       </c>
       <c r="E14" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="37" t="s">
-        <v>188</v>
-      </c>
+      <c r="I14" s="6"/>
       <c r="J14" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>50</v>
       </c>
@@ -2814,30 +2737,33 @@
         <v>55</v>
       </c>
       <c r="E15" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="5"/>
+      <c r="H15" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="6"/>
+      <c r="J15" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="K15" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="L15" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="3"/>
+      <c r="P15" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>178</v>
       </c>
@@ -2849,30 +2775,33 @@
         <v>94</v>
       </c>
       <c r="E16" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="6"/>
+      <c r="J16" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="K16" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="L16" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>28</v>
       </c>
@@ -2884,30 +2813,33 @@
         <v>208</v>
       </c>
       <c r="E17" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="6"/>
+      <c r="J17" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="K17" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="L17" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="3"/>
+      <c r="P17" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>83</v>
       </c>
@@ -2919,30 +2851,33 @@
         <v>209</v>
       </c>
       <c r="E18" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="37" t="s">
-        <v>136</v>
-      </c>
+      <c r="I18" s="6"/>
       <c r="J18" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="3"/>
+      <c r="P18" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>99</v>
       </c>
@@ -2954,30 +2889,33 @@
         <v>306</v>
       </c>
       <c r="E19" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="6"/>
+      <c r="J19" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="K19" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="L19" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>79</v>
       </c>
@@ -2989,30 +2927,33 @@
         <v>61</v>
       </c>
       <c r="E20" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="5"/>
+      <c r="H20" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="37" t="s">
-        <v>112</v>
-      </c>
+      <c r="I20" s="6"/>
       <c r="J20" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="3"/>
+      <c r="P20" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -3024,30 +2965,33 @@
         <v>91</v>
       </c>
       <c r="E21" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="5"/>
+      <c r="H21" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="37" t="s">
-        <v>116</v>
-      </c>
+      <c r="I21" s="6"/>
       <c r="J21" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="3"/>
+      <c r="P21" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>40</v>
       </c>
@@ -3059,30 +3003,33 @@
         <v>92</v>
       </c>
       <c r="E22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="5"/>
+      <c r="H22" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="37" t="s">
-        <v>181</v>
-      </c>
+      <c r="I22" s="6"/>
       <c r="J22" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="3"/>
+      <c r="P22" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>84</v>
       </c>
@@ -3094,30 +3041,33 @@
         <v>37</v>
       </c>
       <c r="E23" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="5"/>
+      <c r="H23" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="37" t="s">
-        <v>52</v>
-      </c>
+      <c r="I23" s="6"/>
       <c r="J23" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="3"/>
+      <c r="P23" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>95</v>
       </c>
@@ -3129,30 +3079,33 @@
         <v>72</v>
       </c>
       <c r="E24" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="5"/>
+      <c r="H24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="37" t="s">
-        <v>128</v>
-      </c>
+      <c r="I24" s="6"/>
       <c r="J24" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="3"/>
+      <c r="P24" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>100</v>
       </c>
@@ -3164,30 +3117,33 @@
         <v>33</v>
       </c>
       <c r="E25" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="5"/>
+      <c r="H25" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="37" t="s">
-        <v>3</v>
-      </c>
+      <c r="I25" s="6"/>
       <c r="J25" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="3" t="s">
+      <c r="O25" s="3"/>
+      <c r="P25" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
@@ -3199,30 +3155,33 @@
         <v>38</v>
       </c>
       <c r="E26" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="5"/>
+      <c r="H26" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="37" t="s">
-        <v>157</v>
-      </c>
+      <c r="I26" s="6"/>
       <c r="J26" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="3" t="s">
+      <c r="O26" s="3"/>
+      <c r="P26" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>53</v>
       </c>
@@ -3234,30 +3193,33 @@
         <v>25</v>
       </c>
       <c r="E27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="5"/>
+      <c r="H27" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="37" t="s">
-        <v>154</v>
-      </c>
+      <c r="I27" s="6"/>
       <c r="J27" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="L27" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="3" t="s">
+      <c r="O27" s="3"/>
+      <c r="P27" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>97</v>
       </c>
@@ -3269,30 +3231,33 @@
         <v>307</v>
       </c>
       <c r="E28" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="5"/>
+      <c r="H28" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="37" t="s">
+      <c r="I28" s="6"/>
+      <c r="J28" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="J28" s="37" t="s">
+      <c r="K28" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="L28" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="3" t="s">
+      <c r="O28" s="3"/>
+      <c r="P28" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>76</v>
       </c>
@@ -3304,30 +3269,33 @@
         <v>212</v>
       </c>
       <c r="E29" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="5"/>
+      <c r="H29" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="37" t="s">
+      <c r="I29" s="6"/>
+      <c r="J29" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="J29" s="37" t="s">
+      <c r="K29" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="L29" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="3"/>
+      <c r="P29" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>49</v>
       </c>
@@ -3339,30 +3307,33 @@
         <v>28</v>
       </c>
       <c r="E30" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="5"/>
+      <c r="H30" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="37" t="s">
-        <v>50</v>
-      </c>
+      <c r="I30" s="6"/>
       <c r="J30" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="L30" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="3" t="s">
+      <c r="O30" s="3"/>
+      <c r="P30" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>41</v>
       </c>
@@ -3374,30 +3345,33 @@
         <v>53</v>
       </c>
       <c r="E31" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="5"/>
+      <c r="H31" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="37" t="s">
-        <v>88</v>
-      </c>
+      <c r="I31" s="6"/>
       <c r="J31" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="L31" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="3" t="s">
+      <c r="O31" s="3"/>
+      <c r="P31" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>29</v>
       </c>
@@ -3409,30 +3383,33 @@
         <v>17</v>
       </c>
       <c r="E32" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="5"/>
+      <c r="H32" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="37" t="s">
-        <v>114</v>
-      </c>
+      <c r="I32" s="6"/>
       <c r="J32" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="L32" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="3" t="s">
+      <c r="O32" s="3"/>
+      <c r="P32" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>63</v>
       </c>
@@ -3444,30 +3421,33 @@
         <v>13</v>
       </c>
       <c r="E33" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="5"/>
+      <c r="H33" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="37" t="s">
-        <v>106</v>
-      </c>
+      <c r="I33" s="6"/>
       <c r="J33" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="L33" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="3" t="s">
+      <c r="O33" s="3"/>
+      <c r="P33" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>85</v>
       </c>
@@ -3479,30 +3459,33 @@
         <v>87</v>
       </c>
       <c r="E34" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="5"/>
+      <c r="H34" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="37" t="s">
-        <v>182</v>
-      </c>
+      <c r="I34" s="6"/>
       <c r="J34" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="L34" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="3" t="s">
+      <c r="O34" s="3"/>
+      <c r="P34" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>35</v>
       </c>
@@ -3514,30 +3497,33 @@
         <v>4</v>
       </c>
       <c r="E35" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="5"/>
+      <c r="H35" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="37" t="s">
+      <c r="I35" s="6"/>
+      <c r="J35" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="J35" s="37" t="s">
+      <c r="K35" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="L35" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="3" t="s">
+      <c r="O35" s="3"/>
+      <c r="P35" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>8</v>
       </c>
@@ -3549,30 +3535,33 @@
         <v>69</v>
       </c>
       <c r="E36" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="5"/>
+      <c r="H36" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="37" t="s">
-        <v>186</v>
-      </c>
+      <c r="I36" s="6"/>
       <c r="J36" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="L36" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="3" t="s">
+      <c r="O36" s="3"/>
+      <c r="P36" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>39</v>
       </c>
@@ -3584,30 +3573,33 @@
         <v>47</v>
       </c>
       <c r="E37" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="5"/>
+      <c r="H37" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="37" t="s">
-        <v>103</v>
-      </c>
+      <c r="I37" s="6"/>
       <c r="J37" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="L37" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="3" t="s">
+      <c r="O37" s="3"/>
+      <c r="P37" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>33</v>
       </c>
@@ -3619,30 +3611,33 @@
         <v>23</v>
       </c>
       <c r="E38" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="5"/>
+      <c r="H38" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="37" t="s">
-        <v>14</v>
-      </c>
+      <c r="I38" s="6"/>
       <c r="J38" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="3" t="s">
+      <c r="O38" s="3"/>
+      <c r="P38" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>23</v>
       </c>
@@ -3654,30 +3649,33 @@
         <v>30</v>
       </c>
       <c r="E39" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="5"/>
+      <c r="H39" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="37" t="s">
-        <v>192</v>
-      </c>
+      <c r="I39" s="6"/>
       <c r="J39" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="K39" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="L39" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="3" t="s">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>59</v>
       </c>
@@ -3689,30 +3687,33 @@
         <v>3</v>
       </c>
       <c r="E40" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="5"/>
+      <c r="H40" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="37" t="s">
-        <v>133</v>
-      </c>
+      <c r="I40" s="6"/>
       <c r="J40" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="K40" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="L40" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="3" t="s">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>74</v>
       </c>
@@ -3724,30 +3725,33 @@
         <v>81</v>
       </c>
       <c r="E41" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="5"/>
+      <c r="H41" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="37" t="s">
-        <v>110</v>
-      </c>
+      <c r="I41" s="6"/>
       <c r="J41" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="K41" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="L41" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="3" t="s">
+      <c r="O41" s="3"/>
+      <c r="P41" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>87</v>
       </c>
@@ -3759,30 +3763,33 @@
         <v>99</v>
       </c>
       <c r="E42" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="5"/>
+      <c r="H42" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="37" t="s">
-        <v>159</v>
-      </c>
+      <c r="I42" s="6"/>
       <c r="J42" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="K42" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="L42" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
-      <c r="O42" s="3" t="s">
+      <c r="O42" s="3"/>
+      <c r="P42" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>14</v>
       </c>
@@ -3794,30 +3801,33 @@
         <v>198</v>
       </c>
       <c r="E43" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="5"/>
+      <c r="H43" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="37" t="s">
-        <v>58</v>
-      </c>
+      <c r="I43" s="6"/>
       <c r="J43" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="L43" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="3" t="s">
+      <c r="O43" s="3"/>
+      <c r="P43" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>2</v>
       </c>
@@ -3829,30 +3839,33 @@
         <v>24</v>
       </c>
       <c r="E44" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="5"/>
+      <c r="H44" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="37" t="s">
-        <v>108</v>
-      </c>
+      <c r="I44" s="6"/>
       <c r="J44" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="L44" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="3" t="s">
+      <c r="O44" s="3"/>
+      <c r="P44" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>38</v>
       </c>
@@ -3864,30 +3877,33 @@
         <v>79</v>
       </c>
       <c r="E45" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="5"/>
+      <c r="H45" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="37" t="s">
-        <v>61</v>
-      </c>
+      <c r="I45" s="6"/>
       <c r="J45" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="L45" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="3"/>
+      <c r="P45" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>13</v>
       </c>
@@ -3899,30 +3915,33 @@
         <v>205</v>
       </c>
       <c r="E46" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F46" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="5"/>
+      <c r="H46" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="37" t="s">
+      <c r="I46" s="6"/>
+      <c r="J46" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="J46" s="37" t="s">
+      <c r="K46" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="K46" s="10" t="s">
+      <c r="L46" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="3" t="s">
+      <c r="O46" s="3"/>
+      <c r="P46" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>19</v>
       </c>
@@ -3934,30 +3953,33 @@
         <v>303</v>
       </c>
       <c r="E47" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="F47" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="5"/>
+      <c r="H47" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="37" t="s">
+      <c r="I47" s="6"/>
+      <c r="J47" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="J47" s="37" t="s">
+      <c r="K47" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="K47" s="10" t="s">
+      <c r="L47" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="3" t="s">
+      <c r="O47" s="3"/>
+      <c r="P47" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>32</v>
       </c>
@@ -3969,30 +3991,33 @@
         <v>200</v>
       </c>
       <c r="E48" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="5"/>
+      <c r="H48" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="37" t="s">
-        <v>119</v>
-      </c>
+      <c r="I48" s="6"/>
       <c r="J48" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="K48" s="10" t="s">
+      <c r="K48" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="L48" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="3" t="s">
+      <c r="O48" s="3"/>
+      <c r="P48" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>64</v>
       </c>
@@ -4004,30 +4029,33 @@
         <v>46</v>
       </c>
       <c r="E49" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="F49" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="5"/>
+      <c r="H49" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="37" t="s">
-        <v>163</v>
-      </c>
+      <c r="I49" s="6"/>
       <c r="J49" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="K49" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="L49" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="O49" s="3" t="s">
+      <c r="O49" s="3"/>
+      <c r="P49" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>89</v>
       </c>
@@ -4039,30 +4067,33 @@
         <v>22</v>
       </c>
       <c r="E50" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="5"/>
+      <c r="H50" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="37" t="s">
-        <v>149</v>
-      </c>
+      <c r="I50" s="6"/>
       <c r="J50" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="K50" s="10" t="s">
+      <c r="K50" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="L50" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="3" t="s">
+      <c r="O50" s="3"/>
+      <c r="P50" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>21</v>
       </c>
@@ -4074,30 +4105,33 @@
         <v>36</v>
       </c>
       <c r="E51" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="5"/>
+      <c r="H51" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="37" t="s">
-        <v>187</v>
-      </c>
+      <c r="I51" s="6"/>
       <c r="J51" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="K51" s="10" t="s">
+      <c r="K51" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="L51" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="3" t="s">
+      <c r="O51" s="3"/>
+      <c r="P51" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>86</v>
       </c>
@@ -4109,30 +4143,33 @@
         <v>14</v>
       </c>
       <c r="E52" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F52" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="5"/>
+      <c r="H52" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="37" t="s">
-        <v>139</v>
-      </c>
+      <c r="I52" s="6"/>
       <c r="J52" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="L52" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="3" t="s">
+      <c r="O52" s="3"/>
+      <c r="P52" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>65</v>
       </c>
@@ -4144,30 +4181,33 @@
         <v>178</v>
       </c>
       <c r="E53" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="5"/>
+      <c r="H53" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="37" t="s">
-        <v>189</v>
-      </c>
+      <c r="I53" s="6"/>
       <c r="J53" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="K53" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="L53" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="3" t="s">
+      <c r="O53" s="3"/>
+      <c r="P53" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>70</v>
       </c>
@@ -4179,30 +4219,33 @@
         <v>207</v>
       </c>
       <c r="E54" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="F54" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="5"/>
+      <c r="H54" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="37" t="s">
+      <c r="I54" s="6"/>
+      <c r="J54" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="J54" s="37" t="s">
+      <c r="K54" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="K54" s="10" t="s">
+      <c r="L54" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
-      <c r="O54" s="3" t="s">
+      <c r="O54" s="3"/>
+      <c r="P54" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>17</v>
       </c>
@@ -4214,30 +4257,33 @@
         <v>57</v>
       </c>
       <c r="E55" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="5"/>
+      <c r="H55" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="37" t="s">
-        <v>113</v>
-      </c>
+      <c r="I55" s="6"/>
       <c r="J55" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K55" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="L55" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-      <c r="O55" s="3" t="s">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>73</v>
       </c>
@@ -4249,30 +4295,33 @@
         <v>29</v>
       </c>
       <c r="E56" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="5"/>
+      <c r="H56" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="37" t="s">
-        <v>141</v>
-      </c>
+      <c r="I56" s="6"/>
       <c r="J56" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="K56" s="10" t="s">
+      <c r="K56" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="L56" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-      <c r="O56" s="3" t="s">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>47</v>
       </c>
@@ -4284,30 +4333,33 @@
         <v>40</v>
       </c>
       <c r="E57" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F57" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="5"/>
+      <c r="H57" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="37" t="s">
-        <v>118</v>
-      </c>
+      <c r="I57" s="6"/>
       <c r="J57" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="K57" s="10" t="s">
+      <c r="K57" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="L57" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
-      <c r="O57" s="3" t="s">
+      <c r="O57" s="3"/>
+      <c r="P57" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>88</v>
       </c>
@@ -4319,30 +4371,33 @@
         <v>6</v>
       </c>
       <c r="E58" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F58" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="5"/>
+      <c r="H58" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="37" t="s">
-        <v>111</v>
-      </c>
+      <c r="I58" s="6"/>
       <c r="J58" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="K58" s="10" t="s">
+      <c r="K58" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="L58" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
-      <c r="O58" s="3" t="s">
+      <c r="O58" s="3"/>
+      <c r="P58" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>48</v>
       </c>
@@ -4354,30 +4409,33 @@
         <v>213</v>
       </c>
       <c r="E59" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F59" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="5"/>
+      <c r="H59" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="37" t="s">
-        <v>131</v>
-      </c>
+      <c r="I59" s="6"/>
       <c r="J59" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="K59" s="10" t="s">
+      <c r="K59" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="L59" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
-      <c r="O59" s="3" t="s">
+      <c r="O59" s="3"/>
+      <c r="P59" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>18</v>
       </c>
@@ -4389,30 +4447,33 @@
         <v>76</v>
       </c>
       <c r="E60" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="F60" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="14" t="s">
+      <c r="G60" s="5"/>
+      <c r="H60" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="37" t="s">
-        <v>117</v>
-      </c>
+      <c r="I60" s="6"/>
       <c r="J60" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="K60" s="10" t="s">
+      <c r="K60" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="L60" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
-      <c r="O60" s="3" t="s">
+      <c r="O60" s="3"/>
+      <c r="P60" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>57</v>
       </c>
@@ -4424,30 +4485,33 @@
         <v>304</v>
       </c>
       <c r="E61" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="F61" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="F61" s="5"/>
-      <c r="G61" s="14" t="s">
+      <c r="G61" s="5"/>
+      <c r="H61" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="37" t="s">
-        <v>24</v>
-      </c>
+      <c r="I61" s="6"/>
       <c r="J61" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="K61" s="10" t="s">
+      <c r="K61" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
-      <c r="O61" s="3" t="s">
+      <c r="O61" s="3"/>
+      <c r="P61" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>30</v>
       </c>
@@ -4459,30 +4523,33 @@
         <v>308</v>
       </c>
       <c r="E62" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="F62" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="14" t="s">
+      <c r="G62" s="5"/>
+      <c r="H62" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="37" t="s">
-        <v>43</v>
-      </c>
+      <c r="I62" s="6"/>
       <c r="J62" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="K62" s="10" t="s">
+      <c r="K62" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="L62" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
-      <c r="O62" s="3" t="s">
+      <c r="O62" s="3"/>
+      <c r="P62" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>61</v>
       </c>
@@ -4494,30 +4561,33 @@
         <v>49</v>
       </c>
       <c r="E63" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F63" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="14" t="s">
+      <c r="G63" s="5"/>
+      <c r="H63" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="37" t="s">
+      <c r="I63" s="6"/>
+      <c r="J63" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="J63" s="37" t="s">
+      <c r="K63" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="K63" s="10" t="s">
+      <c r="L63" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
-      <c r="O63" s="3" t="s">
+      <c r="O63" s="3"/>
+      <c r="P63" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>51</v>
       </c>
@@ -4529,30 +4599,33 @@
         <v>48</v>
       </c>
       <c r="E64" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F64" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="14" t="s">
+      <c r="G64" s="5"/>
+      <c r="H64" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="37" t="s">
-        <v>190</v>
-      </c>
+      <c r="I64" s="6"/>
       <c r="J64" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="K64" s="10" t="s">
+      <c r="K64" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="L64" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-      <c r="O64" s="3" t="s">
+      <c r="O64" s="3"/>
+      <c r="P64" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>80</v>
       </c>
@@ -4564,30 +4637,33 @@
         <v>26</v>
       </c>
       <c r="E65" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F65" s="5"/>
-      <c r="G65" s="14" t="s">
+      <c r="G65" s="5"/>
+      <c r="H65" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="37" t="s">
-        <v>185</v>
-      </c>
+      <c r="I65" s="6"/>
       <c r="J65" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="K65" s="10" t="s">
+      <c r="K65" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="L65" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
-      <c r="O65" s="3" t="s">
+      <c r="O65" s="3"/>
+      <c r="P65" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>26</v>
       </c>
@@ -4599,30 +4675,33 @@
         <v>302</v>
       </c>
       <c r="E66" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="F66" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F66" s="5"/>
-      <c r="G66" s="14" t="s">
+      <c r="G66" s="5"/>
+      <c r="H66" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="37" t="s">
-        <v>194</v>
-      </c>
+      <c r="I66" s="6"/>
       <c r="J66" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="K66" s="10" t="s">
+      <c r="K66" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="L66" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-      <c r="O66" s="3" t="s">
+      <c r="O66" s="3"/>
+      <c r="P66" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>52</v>
       </c>
@@ -4634,30 +4713,33 @@
         <v>301</v>
       </c>
       <c r="E67" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="F67" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="F67" s="5"/>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="5"/>
+      <c r="H67" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="37" t="s">
-        <v>125</v>
-      </c>
+      <c r="I67" s="6"/>
       <c r="J67" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="K67" s="10" t="s">
+      <c r="K67" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="L67" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-      <c r="O67" s="3" t="s">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>31</v>
       </c>
@@ -4669,30 +4751,33 @@
         <v>54</v>
       </c>
       <c r="E68" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="F68" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="5"/>
+      <c r="H68" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="37" t="s">
+      <c r="I68" s="6"/>
+      <c r="J68" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="J68" s="37" t="s">
+      <c r="K68" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="K68" s="10" t="s">
+      <c r="L68" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
-      <c r="O68" s="3" t="s">
+      <c r="O68" s="3"/>
+      <c r="P68" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>45</v>
       </c>
@@ -4704,30 +4789,33 @@
         <v>8</v>
       </c>
       <c r="E69" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="F69" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="14" t="s">
+      <c r="G69" s="5"/>
+      <c r="H69" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="37" t="s">
-        <v>74</v>
-      </c>
+      <c r="I69" s="6"/>
       <c r="J69" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="K69" s="10" t="s">
+      <c r="K69" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="L69" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
-      <c r="O69" s="3" t="s">
+      <c r="O69" s="3"/>
+      <c r="P69" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>75</v>
       </c>
@@ -4739,30 +4827,33 @@
         <v>197</v>
       </c>
       <c r="E70" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="F70" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F70" s="5"/>
-      <c r="G70" s="14" t="s">
+      <c r="G70" s="5"/>
+      <c r="H70" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="37" t="s">
+      <c r="I70" s="6"/>
+      <c r="J70" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="J70" s="37" t="s">
+      <c r="K70" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K70" s="10" t="s">
+      <c r="L70" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
-      <c r="O70" s="3" t="s">
+      <c r="O70" s="3"/>
+      <c r="P70" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>90</v>
       </c>
@@ -4774,30 +4865,33 @@
         <v>67</v>
       </c>
       <c r="E71" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F71" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F71" s="5"/>
-      <c r="G71" s="14" t="s">
+      <c r="G71" s="5"/>
+      <c r="H71" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H71" s="6"/>
-      <c r="I71" s="37" t="s">
-        <v>138</v>
-      </c>
+      <c r="I71" s="6"/>
       <c r="J71" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="K71" s="10" t="s">
+      <c r="K71" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="L71" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
-      <c r="O71" s="3" t="s">
+      <c r="O71" s="3"/>
+      <c r="P71" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>11</v>
       </c>
@@ -4809,30 +4903,33 @@
         <v>21</v>
       </c>
       <c r="E72" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F72" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F72" s="5"/>
-      <c r="G72" s="14" t="s">
+      <c r="G72" s="5"/>
+      <c r="H72" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H72" s="6"/>
-      <c r="I72" s="37" t="s">
-        <v>158</v>
-      </c>
+      <c r="I72" s="6"/>
       <c r="J72" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="K72" s="10" t="s">
+      <c r="K72" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="L72" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
-      <c r="O72" s="3" t="s">
+      <c r="O72" s="3"/>
+      <c r="P72" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>56</v>
       </c>
@@ -4844,30 +4941,33 @@
         <v>214</v>
       </c>
       <c r="E73" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="F73" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="5"/>
-      <c r="G73" s="14" t="s">
+      <c r="G73" s="5"/>
+      <c r="H73" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="37" t="s">
-        <v>137</v>
-      </c>
+      <c r="I73" s="6"/>
       <c r="J73" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="K73" s="10" t="s">
+      <c r="K73" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="L73" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
-      <c r="O73" s="3" t="s">
+      <c r="O73" s="3"/>
+      <c r="P73" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>98</v>
       </c>
@@ -4879,30 +4979,33 @@
         <v>309</v>
       </c>
       <c r="E74" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F74" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="F74" s="5"/>
-      <c r="G74" s="14" t="s">
+      <c r="G74" s="5"/>
+      <c r="H74" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="37" t="s">
+      <c r="I74" s="6"/>
+      <c r="J74" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="J74" s="37" t="s">
+      <c r="K74" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="K74" s="10" t="s">
+      <c r="L74" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
-      <c r="O74" s="3" t="s">
+      <c r="O74" s="3"/>
+      <c r="P74" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>54</v>
       </c>
@@ -4914,30 +5017,33 @@
         <v>16</v>
       </c>
       <c r="E75" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="F75" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="F75" s="5"/>
-      <c r="G75" s="14" t="s">
+      <c r="G75" s="5"/>
+      <c r="H75" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="37" t="s">
-        <v>95</v>
-      </c>
+      <c r="I75" s="6"/>
       <c r="J75" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="K75" s="10" t="s">
+      <c r="K75" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="L75" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
-      <c r="O75" s="3" t="s">
+      <c r="O75" s="3"/>
+      <c r="P75" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>4</v>
       </c>
@@ -4949,30 +5055,33 @@
         <v>41</v>
       </c>
       <c r="E76" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F76" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="14" t="s">
+      <c r="G76" s="5"/>
+      <c r="H76" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="37" t="s">
+      <c r="I76" s="6"/>
+      <c r="J76" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="J76" s="37" t="s">
+      <c r="K76" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="K76" s="10" t="s">
+      <c r="L76" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
-      <c r="O76" s="3" t="s">
+      <c r="O76" s="3"/>
+      <c r="P76" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>82</v>
       </c>
@@ -4984,30 +5093,33 @@
         <v>206</v>
       </c>
       <c r="E77" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F77" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="F77" s="5"/>
-      <c r="G77" s="14" t="s">
+      <c r="G77" s="5"/>
+      <c r="H77" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="37" t="s">
-        <v>120</v>
-      </c>
+      <c r="I77" s="6"/>
       <c r="J77" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="K77" s="10" t="s">
+      <c r="K77" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="L77" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
-      <c r="O77" s="3" t="s">
+      <c r="O77" s="3"/>
+      <c r="P77" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>72</v>
       </c>
@@ -5019,30 +5131,33 @@
         <v>305</v>
       </c>
       <c r="E78" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="F78" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="F78" s="5"/>
-      <c r="G78" s="14" t="s">
+      <c r="G78" s="5"/>
+      <c r="H78" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="37" t="s">
-        <v>107</v>
-      </c>
+      <c r="I78" s="6"/>
       <c r="J78" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="K78" s="10" t="s">
+      <c r="K78" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="L78" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
-      <c r="O78" s="3" t="s">
+      <c r="O78" s="3"/>
+      <c r="P78" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>42</v>
       </c>
@@ -5054,30 +5169,33 @@
         <v>45</v>
       </c>
       <c r="E79" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F79" s="5"/>
-      <c r="G79" s="14" t="s">
+      <c r="G79" s="5"/>
+      <c r="H79" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="37" t="s">
+      <c r="I79" s="6"/>
+      <c r="J79" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="J79" s="37" t="s">
+      <c r="K79" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="K79" s="10" t="s">
+      <c r="L79" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
-      <c r="O79" s="3" t="s">
+      <c r="O79" s="3"/>
+      <c r="P79" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>96</v>
       </c>
@@ -5089,30 +5207,33 @@
         <v>82</v>
       </c>
       <c r="E80" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="F80" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F80" s="5"/>
-      <c r="G80" s="14" t="s">
+      <c r="G80" s="5"/>
+      <c r="H80" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="37" t="s">
+      <c r="I80" s="6"/>
+      <c r="J80" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="J80" s="37" t="s">
+      <c r="K80" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="K80" s="10" t="s">
+      <c r="L80" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
-      <c r="O80" s="3" t="s">
+      <c r="O80" s="3"/>
+      <c r="P80" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>78</v>
       </c>
@@ -5124,30 +5245,33 @@
         <v>199</v>
       </c>
       <c r="E81" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="F81" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="F81" s="5"/>
-      <c r="G81" s="14" t="s">
+      <c r="G81" s="5"/>
+      <c r="H81" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H81" s="6"/>
-      <c r="I81" s="37" t="s">
-        <v>145</v>
-      </c>
+      <c r="I81" s="6"/>
       <c r="J81" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="K81" s="10" t="s">
+      <c r="K81" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="L81" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
-      <c r="O81" s="3" t="s">
+      <c r="O81" s="3"/>
+      <c r="P81" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>62</v>
       </c>
@@ -5159,30 +5283,33 @@
         <v>44</v>
       </c>
       <c r="E82" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F82" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="F82" s="5"/>
-      <c r="G82" s="14" t="s">
+      <c r="G82" s="5"/>
+      <c r="H82" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H82" s="6"/>
-      <c r="I82" s="37" t="s">
+      <c r="I82" s="6"/>
+      <c r="J82" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="J82" s="37" t="s">
+      <c r="K82" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="K82" s="10" t="s">
+      <c r="L82" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-      <c r="O82" s="3" t="s">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>66</v>
       </c>
@@ -5194,30 +5321,33 @@
         <v>19</v>
       </c>
       <c r="E83" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F83" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F83" s="5"/>
-      <c r="G83" s="14" t="s">
+      <c r="G83" s="5"/>
+      <c r="H83" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="H83" s="6"/>
-      <c r="I83" s="37" t="s">
+      <c r="I83" s="6"/>
+      <c r="J83" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="J83" s="37" t="s">
+      <c r="K83" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="K83" s="10" t="s">
+      <c r="L83" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
-      <c r="O83" s="3" t="s">
+      <c r="O83" s="3"/>
+      <c r="P83" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>67</v>
       </c>
@@ -5229,30 +5359,33 @@
         <v>80</v>
       </c>
       <c r="E84" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="F84" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F84" s="5"/>
-      <c r="G84" s="14" t="s">
+      <c r="G84" s="5"/>
+      <c r="H84" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="H84" s="6"/>
-      <c r="I84" s="37" t="s">
+      <c r="I84" s="6"/>
+      <c r="J84" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="J84" s="37" t="s">
+      <c r="K84" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="K84" s="10" t="s">
+      <c r="L84" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
-      <c r="O84" s="3" t="s">
+      <c r="O84" s="3"/>
+      <c r="P84" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>55</v>
       </c>
@@ -5264,30 +5397,33 @@
         <v>203</v>
       </c>
       <c r="E85" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F85" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F85" s="5"/>
-      <c r="G85" s="14" t="s">
+      <c r="G85" s="5"/>
+      <c r="H85" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="H85" s="6"/>
-      <c r="I85" s="37" t="s">
+      <c r="I85" s="6"/>
+      <c r="J85" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="J85" s="37" t="s">
+      <c r="K85" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K85" s="10" t="s">
+      <c r="L85" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
-      <c r="O85" s="3" t="s">
+      <c r="O85" s="3"/>
+      <c r="P85" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>7</v>
       </c>
@@ -5299,30 +5435,33 @@
         <v>32</v>
       </c>
       <c r="E86" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="F86" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F86" s="5"/>
-      <c r="G86" s="14" t="s">
+      <c r="G86" s="5"/>
+      <c r="H86" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H86" s="6"/>
-      <c r="I86" s="37" t="s">
-        <v>109</v>
-      </c>
+      <c r="I86" s="6"/>
       <c r="J86" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K86" s="10" t="s">
+      <c r="K86" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="L86" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
-      <c r="O86" s="3" t="s">
+      <c r="O86" s="3"/>
+      <c r="P86" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>92</v>
       </c>
@@ -5334,30 +5473,33 @@
         <v>10</v>
       </c>
       <c r="E87" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="F87" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F87" s="5"/>
-      <c r="G87" s="14" t="s">
+      <c r="G87" s="5"/>
+      <c r="H87" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H87" s="6"/>
-      <c r="I87" s="37" t="s">
+      <c r="I87" s="6"/>
+      <c r="J87" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="J87" s="37" t="s">
+      <c r="K87" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="K87" s="10" t="s">
+      <c r="L87" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
-      <c r="O87" s="3" t="s">
+      <c r="O87" s="3"/>
+      <c r="P87" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>36</v>
       </c>
@@ -5369,30 +5511,33 @@
         <v>201</v>
       </c>
       <c r="E88" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="F88" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="F88" s="5"/>
-      <c r="G88" s="14" t="s">
+      <c r="G88" s="5"/>
+      <c r="H88" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="H88" s="6"/>
-      <c r="I88" s="37" t="s">
+      <c r="I88" s="6"/>
+      <c r="J88" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J88" s="37" t="s">
+      <c r="K88" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="K88" s="10" t="s">
+      <c r="L88" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
-      <c r="O88" s="3" t="s">
+      <c r="O88" s="3"/>
+      <c r="P88" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>71</v>
       </c>
@@ -5404,30 +5549,33 @@
         <v>202</v>
       </c>
       <c r="E89" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="F89" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F89" s="5"/>
-      <c r="G89" s="14" t="s">
+      <c r="G89" s="5"/>
+      <c r="H89" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H89" s="6"/>
-      <c r="I89" s="37" t="s">
+      <c r="I89" s="6"/>
+      <c r="J89" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="J89" s="37" t="s">
+      <c r="K89" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="K89" s="10" t="s">
+      <c r="L89" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
-      <c r="O89" s="3" t="s">
+      <c r="O89" s="3"/>
+      <c r="P89" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>22</v>
       </c>
@@ -5439,30 +5587,33 @@
         <v>20</v>
       </c>
       <c r="E90" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="F90" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F90" s="5"/>
-      <c r="G90" s="14" t="s">
+      <c r="G90" s="5"/>
+      <c r="H90" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="H90" s="6"/>
-      <c r="I90" s="37" t="s">
+      <c r="I90" s="6"/>
+      <c r="J90" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="J90" s="37" t="s">
+      <c r="K90" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="K90" s="10" t="s">
+      <c r="L90" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-      <c r="O90" s="3" t="s">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>6</v>
       </c>
@@ -5474,30 +5625,33 @@
         <v>85</v>
       </c>
       <c r="E91" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F91" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F91" s="5"/>
-      <c r="G91" s="14" t="s">
+      <c r="G91" s="5"/>
+      <c r="H91" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H91" s="6"/>
-      <c r="I91" s="37" t="s">
-        <v>51</v>
-      </c>
+      <c r="I91" s="6"/>
       <c r="J91" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="K91" s="10" t="s">
+      <c r="K91" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="L91" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
-      <c r="O91" s="3" t="s">
+      <c r="O91" s="3"/>
+      <c r="P91" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>91</v>
       </c>
@@ -5509,30 +5663,33 @@
         <v>5</v>
       </c>
       <c r="E92" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="F92" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="F92" s="5"/>
-      <c r="G92" s="14" t="s">
+      <c r="G92" s="5"/>
+      <c r="H92" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="H92" s="6"/>
-      <c r="I92" s="37" t="s">
-        <v>65</v>
-      </c>
+      <c r="I92" s="6"/>
       <c r="J92" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="K92" s="10" t="s">
+      <c r="K92" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="L92" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
-      <c r="O92" s="3" t="s">
+      <c r="O92" s="3"/>
+      <c r="P92" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>69</v>
       </c>
@@ -5544,30 +5701,33 @@
         <v>7</v>
       </c>
       <c r="E93" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F93" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="F93" s="5"/>
-      <c r="G93" s="14" t="s">
+      <c r="G93" s="5"/>
+      <c r="H93" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="H93" s="6"/>
-      <c r="I93" s="37" t="s">
-        <v>25</v>
-      </c>
+      <c r="I93" s="6"/>
       <c r="J93" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="K93" s="10" t="s">
+      <c r="K93" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L93" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
-      <c r="O93" s="3" t="s">
+      <c r="O93" s="3"/>
+      <c r="P93" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>37</v>
       </c>
@@ -5579,30 +5739,33 @@
         <v>89</v>
       </c>
       <c r="E94" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="F94" s="5"/>
-      <c r="G94" s="14" t="s">
+      <c r="G94" s="5"/>
+      <c r="H94" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="H94" s="6"/>
-      <c r="I94" s="37" t="s">
+      <c r="I94" s="6"/>
+      <c r="J94" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="J94" s="37" t="s">
+      <c r="K94" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="K94" s="10" t="s">
+      <c r="L94" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
-      <c r="O94" s="3" t="s">
+      <c r="O94" s="3"/>
+      <c r="P94" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>77</v>
       </c>
@@ -5614,30 +5777,33 @@
         <v>59</v>
       </c>
       <c r="E95" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F95" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F95" s="5"/>
-      <c r="G95" s="14" t="s">
+      <c r="G95" s="5"/>
+      <c r="H95" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H95" s="6"/>
-      <c r="I95" s="37" t="s">
+      <c r="I95" s="6"/>
+      <c r="J95" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="J95" s="37" t="s">
+      <c r="K95" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="K95" s="10" t="s">
+      <c r="L95" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-      <c r="O95" s="3" t="s">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>15</v>
       </c>
@@ -5649,30 +5815,33 @@
         <v>11</v>
       </c>
       <c r="E96" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F96" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F96" s="5"/>
-      <c r="G96" s="14" t="s">
+      <c r="G96" s="5"/>
+      <c r="H96" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="H96" s="6"/>
-      <c r="I96" s="37" t="s">
+      <c r="I96" s="6"/>
+      <c r="J96" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="J96" s="37" t="s">
+      <c r="K96" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="K96" s="10" t="s">
+      <c r="L96" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
-      <c r="O96" s="3" t="s">
+      <c r="O96" s="3"/>
+      <c r="P96" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>93</v>
       </c>
@@ -5684,30 +5853,33 @@
         <v>181</v>
       </c>
       <c r="E97" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="F97" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F97" s="5"/>
-      <c r="G97" s="14" t="s">
+      <c r="G97" s="5"/>
+      <c r="H97" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="H97" s="6"/>
-      <c r="I97" s="37" t="s">
-        <v>94</v>
-      </c>
+      <c r="I97" s="6"/>
       <c r="J97" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="K97" s="10" t="s">
+      <c r="K97" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="L97" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
-      <c r="O97" s="3" t="s">
+      <c r="O97" s="3"/>
+      <c r="P97" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>60</v>
       </c>
@@ -5719,30 +5891,33 @@
         <v>93</v>
       </c>
       <c r="E98" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="F98" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="F98" s="5"/>
-      <c r="G98" s="14" t="s">
+      <c r="G98" s="5"/>
+      <c r="H98" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="H98" s="6"/>
-      <c r="I98" s="37" t="s">
+      <c r="I98" s="6"/>
+      <c r="J98" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="J98" s="37" t="s">
+      <c r="K98" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="K98" s="10" t="s">
+      <c r="L98" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="L98" s="3"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
-      <c r="O98" s="3" t="s">
+      <c r="O98" s="3"/>
+      <c r="P98" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>43</v>
       </c>
@@ -5754,30 +5929,33 @@
         <v>210</v>
       </c>
       <c r="E99" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F99" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F99" s="5"/>
-      <c r="G99" s="14" t="s">
+      <c r="G99" s="5"/>
+      <c r="H99" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="H99" s="6"/>
-      <c r="I99" s="37" t="s">
+      <c r="I99" s="6"/>
+      <c r="J99" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="J99" s="37" t="s">
+      <c r="K99" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="K99" s="10" t="s">
+      <c r="L99" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="L99" s="3"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
-      <c r="O99" s="3" t="s">
+      <c r="O99" s="3"/>
+      <c r="P99" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>16</v>
       </c>
@@ -5789,30 +5967,33 @@
         <v>211</v>
       </c>
       <c r="E100" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F100" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="F100" s="5"/>
-      <c r="G100" s="14" t="s">
+      <c r="G100" s="5"/>
+      <c r="H100" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="H100" s="6"/>
-      <c r="I100" s="37" t="s">
-        <v>155</v>
-      </c>
+      <c r="I100" s="6"/>
       <c r="J100" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="K100" s="10" t="s">
+      <c r="K100" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="L100" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="L100" s="3"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
-      <c r="O100" s="3" t="s">
+      <c r="O100" s="3"/>
+      <c r="P100" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>25</v>
       </c>
@@ -5824,30 +6005,33 @@
         <v>9</v>
       </c>
       <c r="E101" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="F101" s="5"/>
-      <c r="G101" s="14" t="s">
+      <c r="G101" s="5"/>
+      <c r="H101" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H101" s="6"/>
-      <c r="I101" s="37" t="s">
-        <v>86</v>
-      </c>
+      <c r="I101" s="6"/>
       <c r="J101" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="K101" s="10" t="s">
+      <c r="K101" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L101" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="L101" s="3"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
-      <c r="O101" s="3" t="s">
+      <c r="O101" s="3"/>
+      <c r="P101" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>46</v>
       </c>
@@ -5859,36 +6043,39 @@
         <v>15</v>
       </c>
       <c r="E102" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="F102" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="F102" s="5"/>
-      <c r="G102" s="14" t="s">
+      <c r="G102" s="5"/>
+      <c r="H102" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H102" s="7"/>
-      <c r="I102" s="37" t="s">
+      <c r="I102" s="7"/>
+      <c r="J102" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="J102" s="37" t="s">
+      <c r="K102" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="K102" s="10" t="s">
+      <c r="L102" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="L102" s="3"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
-      <c r="O102" s="3" t="s">
+      <c r="O102" s="3"/>
+      <c r="P102" s="3" t="s">
         <v>299</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="C2:E101">
-    <sortCondition ref="E2"/>
+  <sortState ref="E3:E102">
+    <sortCondition ref="E3"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5900,15 +6087,16 @@
   <dimension ref="A1:N162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:N8"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="17"/>
     <col min="2" max="2" width="11.83203125" style="17" customWidth="1"/>
-    <col min="3" max="4" width="11.5" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="66" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="66" customWidth="1"/>
     <col min="6" max="6" width="24.1640625" style="17" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="17"/>
     <col min="8" max="10" width="11.5" style="17" customWidth="1"/>
@@ -5925,8 +6113,8 @@
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
       <c r="G1" s="36" t="s">
         <v>314</v>
       </c>
@@ -5945,8 +6133,8 @@
       <c r="C2" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
       <c r="G2" s="15" t="s">
         <v>315</v>
       </c>
@@ -5965,7 +6153,10 @@
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
-      <c r="D3" s="52"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="50" t="s">
+        <v>401</v>
+      </c>
       <c r="G3" s="18" t="s">
         <v>157</v>
       </c>
@@ -5983,7 +6174,10 @@
       </c>
       <c r="B4" s="56"/>
       <c r="C4" s="56"/>
-      <c r="D4" s="52"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="50" t="s">
+        <v>383</v>
+      </c>
       <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
@@ -5997,13 +6191,16 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="47"/>
+      <c r="E5" s="50" t="s">
+        <v>243</v>
+      </c>
       <c r="G5" s="18" t="s">
         <v>128</v>
       </c>
@@ -6015,13 +6212,16 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="47"/>
+      <c r="E6" s="50" t="s">
+        <v>393</v>
+      </c>
       <c r="G6" s="18" t="s">
         <v>94</v>
       </c>
@@ -6033,13 +6233,16 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="47"/>
+      <c r="E7" s="50" t="s">
+        <v>247</v>
+      </c>
       <c r="G7" s="18" t="s">
         <v>58</v>
       </c>
@@ -6057,8 +6260,9 @@
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
-      <c r="D8" s="40" t="s">
-        <v>9</v>
+      <c r="D8" s="70"/>
+      <c r="E8" s="50" t="s">
+        <v>390</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>141</v>
@@ -6077,8 +6281,9 @@
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
-      <c r="D9" s="40" t="s">
-        <v>94</v>
+      <c r="D9" s="70"/>
+      <c r="E9" s="50" t="s">
+        <v>397</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>50</v>
@@ -6087,13 +6292,16 @@
       <c r="I9" s="18"/>
       <c r="J9" s="43"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>81</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="47"/>
+      <c r="E10" s="50" t="s">
+        <v>238</v>
+      </c>
       <c r="G10" s="18" t="s">
         <v>114</v>
       </c>
@@ -6107,8 +6315,9 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="40" t="s">
-        <v>50</v>
+      <c r="D11" s="70"/>
+      <c r="E11" s="50" t="s">
+        <v>409</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>172</v>
@@ -6123,8 +6332,9 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="40" t="s">
-        <v>178</v>
+      <c r="D12" s="70"/>
+      <c r="E12" s="50" t="s">
+        <v>226</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>116</v>
@@ -6139,8 +6349,9 @@
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="40" t="s">
-        <v>28</v>
+      <c r="D13" s="70"/>
+      <c r="E13" s="50" t="s">
+        <v>287</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>106</v>
@@ -6155,8 +6366,9 @@
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="40" t="s">
-        <v>83</v>
+      <c r="D14" s="70"/>
+      <c r="E14" s="50" t="s">
+        <v>178</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>108</v>
@@ -6165,13 +6377,16 @@
       <c r="I14" s="18"/>
       <c r="J14" s="43"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>99</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="47"/>
+      <c r="E15" s="50" t="s">
+        <v>237</v>
+      </c>
       <c r="G15" s="18" t="s">
         <v>95</v>
       </c>
@@ -6185,8 +6400,9 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="40" t="s">
-        <v>79</v>
+      <c r="D16" s="70"/>
+      <c r="E16" s="50" t="s">
+        <v>379</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>150</v>
@@ -6201,8 +6417,9 @@
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="40" t="s">
-        <v>10</v>
+      <c r="D17" s="70"/>
+      <c r="E17" s="50" t="s">
+        <v>227</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>133</v>
@@ -6217,8 +6434,9 @@
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="40" t="s">
-        <v>40</v>
+      <c r="D18" s="70"/>
+      <c r="E18" s="50" t="s">
+        <v>294</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>24</v>
@@ -6233,8 +6451,9 @@
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="40" t="s">
-        <v>24</v>
+      <c r="D19" s="70"/>
+      <c r="E19" s="50" t="s">
+        <v>235</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>131</v>
@@ -6243,13 +6462,16 @@
       <c r="I19" s="18"/>
       <c r="J19" s="43"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="47"/>
+      <c r="E20" s="50" t="s">
+        <v>276</v>
+      </c>
       <c r="G20" s="18" t="s">
         <v>119</v>
       </c>
@@ -6263,8 +6485,9 @@
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="40" t="s">
-        <v>76</v>
+      <c r="D21" s="70"/>
+      <c r="E21" s="50" t="s">
+        <v>222</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>154</v>
@@ -6273,13 +6496,16 @@
       <c r="I21" s="18"/>
       <c r="J21" s="43"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="47"/>
+      <c r="E22" s="50" t="s">
+        <v>41</v>
+      </c>
       <c r="G22" s="18" t="s">
         <v>103</v>
       </c>
@@ -6287,13 +6513,16 @@
       <c r="I22" s="18"/>
       <c r="J22" s="43"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="47"/>
+      <c r="E23" s="50" t="s">
+        <v>221</v>
+      </c>
       <c r="G23" s="18" t="s">
         <v>137</v>
       </c>
@@ -6301,13 +6530,16 @@
       <c r="I23" s="18"/>
       <c r="J23" s="43"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="47"/>
+      <c r="E24" s="50" t="s">
+        <v>232</v>
+      </c>
       <c r="G24" s="18" t="s">
         <v>102</v>
       </c>
@@ -6315,13 +6547,16 @@
       <c r="I24" s="18"/>
       <c r="J24" s="43"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="47"/>
+      <c r="E25" s="50" t="s">
+        <v>225</v>
+      </c>
       <c r="G25" s="18" t="s">
         <v>161</v>
       </c>
@@ -6329,13 +6564,16 @@
       <c r="I25" s="18"/>
       <c r="J25" s="43"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="47"/>
+      <c r="E26" s="50" t="s">
+        <v>169</v>
+      </c>
       <c r="G26" s="18" t="s">
         <v>130</v>
       </c>
@@ -6349,8 +6587,9 @@
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
-      <c r="D27" s="40" t="s">
-        <v>8</v>
+      <c r="D27" s="70"/>
+      <c r="E27" s="50" t="s">
+        <v>29</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>169</v>
@@ -6359,13 +6598,16 @@
       <c r="I27" s="18"/>
       <c r="J27" s="43"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="47"/>
+      <c r="E28" s="50" t="s">
+        <v>229</v>
+      </c>
       <c r="G28" s="18" t="s">
         <v>121</v>
       </c>
@@ -6379,8 +6621,9 @@
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="40" t="s">
-        <v>33</v>
+      <c r="D29" s="70"/>
+      <c r="E29" s="50" t="s">
+        <v>267</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>134</v>
@@ -6389,13 +6632,16 @@
       <c r="I29" s="18"/>
       <c r="J29" s="43"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="47"/>
+      <c r="E30" s="50" t="s">
+        <v>274</v>
+      </c>
       <c r="G30" s="18" t="s">
         <v>129</v>
       </c>
@@ -6403,13 +6649,16 @@
       <c r="I30" s="18"/>
       <c r="J30" s="43"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>87</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="47"/>
+      <c r="E31" s="50" t="s">
+        <v>392</v>
+      </c>
       <c r="G31" s="18" t="s">
         <v>8</v>
       </c>
@@ -6423,8 +6672,9 @@
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
-      <c r="D32" s="40" t="s">
-        <v>14</v>
+      <c r="D32" s="70"/>
+      <c r="E32" s="50" t="s">
+        <v>386</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>160</v>
@@ -6439,8 +6689,9 @@
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
-      <c r="D33" s="40" t="s">
-        <v>38</v>
+      <c r="D33" s="70"/>
+      <c r="E33" s="50" t="s">
+        <v>405</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>117</v>
@@ -6449,13 +6700,16 @@
       <c r="I33" s="18"/>
       <c r="J33" s="43"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="47"/>
+      <c r="E34" s="50" t="s">
+        <v>380</v>
+      </c>
       <c r="G34" s="18" t="s">
         <v>149</v>
       </c>
@@ -6463,13 +6717,16 @@
       <c r="I34" s="18"/>
       <c r="J34" s="43"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="47"/>
+      <c r="E35" s="50" t="s">
+        <v>395</v>
+      </c>
       <c r="G35" s="18" t="s">
         <v>158</v>
       </c>
@@ -6477,13 +6734,16 @@
       <c r="I35" s="18"/>
       <c r="J35" s="43"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="47"/>
+      <c r="E36" s="50" t="s">
+        <v>256</v>
+      </c>
       <c r="G36" s="18" t="s">
         <v>74</v>
       </c>
@@ -6491,13 +6751,16 @@
       <c r="I36" s="18"/>
       <c r="J36" s="43"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="47"/>
+      <c r="E37" s="50" t="s">
+        <v>391</v>
+      </c>
       <c r="G37" s="18" t="s">
         <v>125</v>
       </c>
@@ -6505,13 +6768,16 @@
       <c r="I37" s="18"/>
       <c r="J37" s="43"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>89</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="47"/>
+      <c r="E38" s="50" t="s">
+        <v>223</v>
+      </c>
       <c r="G38" s="18" t="s">
         <v>14</v>
       </c>
@@ -6525,8 +6791,9 @@
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="40" t="s">
-        <v>21</v>
+      <c r="D39" s="70"/>
+      <c r="E39" s="50" t="s">
+        <v>87</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>139</v>
@@ -6535,13 +6802,16 @@
       <c r="I39" s="18"/>
       <c r="J39" s="43"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="47"/>
+      <c r="E40" s="50" t="s">
+        <v>404</v>
+      </c>
       <c r="G40" s="18" t="s">
         <v>147</v>
       </c>
@@ -6549,13 +6819,16 @@
       <c r="I40" s="18"/>
       <c r="J40" s="43"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="47"/>
+      <c r="E41" s="50" t="s">
+        <v>283</v>
+      </c>
       <c r="G41" s="18" t="s">
         <v>163</v>
       </c>
@@ -6569,8 +6842,9 @@
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
-      <c r="D42" s="40" t="s">
-        <v>48</v>
+      <c r="D42" s="70"/>
+      <c r="E42" s="50" t="s">
+        <v>403</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>159</v>
@@ -6579,13 +6853,16 @@
       <c r="I42" s="18"/>
       <c r="J42" s="43"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="47"/>
+      <c r="E43" s="50" t="s">
+        <v>299</v>
+      </c>
       <c r="G43" s="18" t="s">
         <v>109</v>
       </c>
@@ -6593,13 +6870,16 @@
       <c r="I43" s="18"/>
       <c r="J43" s="43"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="47"/>
+      <c r="E44" s="50" t="s">
+        <v>396</v>
+      </c>
       <c r="G44" s="18" t="s">
         <v>145</v>
       </c>
@@ -6607,13 +6887,16 @@
       <c r="I44" s="18"/>
       <c r="J44" s="43"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="47"/>
+      <c r="E45" s="50" t="s">
+        <v>207</v>
+      </c>
       <c r="G45" s="18" t="s">
         <v>155</v>
       </c>
@@ -6627,8 +6910,9 @@
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
-      <c r="D46" s="40" t="s">
-        <v>61</v>
+      <c r="D46" s="70"/>
+      <c r="E46" s="50" t="s">
+        <v>255</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>138</v>
@@ -6637,13 +6921,16 @@
       <c r="I46" s="18"/>
       <c r="J46" s="43"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="47"/>
+      <c r="E47" s="50" t="s">
+        <v>410</v>
+      </c>
       <c r="G47" s="18" t="s">
         <v>112</v>
       </c>
@@ -6657,8 +6944,9 @@
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
-      <c r="D48" s="40" t="s">
-        <v>26</v>
+      <c r="D48" s="70"/>
+      <c r="E48" s="50" t="s">
+        <v>19</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>120</v>
@@ -6673,8 +6961,9 @@
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
-      <c r="D49" s="40" t="s">
-        <v>31</v>
+      <c r="D49" s="70"/>
+      <c r="E49" s="50" t="s">
+        <v>388</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>111</v>
@@ -6689,8 +6978,9 @@
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
-      <c r="D50" s="40" t="s">
-        <v>45</v>
+      <c r="D50" s="70"/>
+      <c r="E50" s="50" t="s">
+        <v>399</v>
       </c>
       <c r="G50" s="18" t="s">
         <v>107</v>
@@ -6705,8 +6995,9 @@
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
-      <c r="D51" s="40" t="s">
-        <v>54</v>
+      <c r="D51" s="70"/>
+      <c r="E51" s="50" t="s">
+        <v>400</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>65</v>
@@ -6715,13 +7006,16 @@
       <c r="I51" s="18"/>
       <c r="J51" s="43"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="47"/>
+      <c r="E52" s="50" t="s">
+        <v>228</v>
+      </c>
       <c r="G52" s="18" t="s">
         <v>88</v>
       </c>
@@ -6729,13 +7023,16 @@
       <c r="I52" s="18"/>
       <c r="J52" s="43"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="47"/>
+      <c r="E53" s="50" t="s">
+        <v>155</v>
+      </c>
       <c r="G53" s="18" t="s">
         <v>61</v>
       </c>
@@ -6743,13 +7040,16 @@
       <c r="I53" s="18"/>
       <c r="J53" s="43"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
         <v>72</v>
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="47"/>
+      <c r="E54" s="50" t="s">
+        <v>381</v>
+      </c>
       <c r="G54" s="18" t="s">
         <v>118</v>
       </c>
@@ -6757,13 +7057,16 @@
       <c r="I54" s="18"/>
       <c r="J54" s="43"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="47"/>
+      <c r="E55" s="50" t="s">
+        <v>190</v>
+      </c>
       <c r="G55" s="18" t="s">
         <v>110</v>
       </c>
@@ -6777,8 +7080,9 @@
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
-      <c r="D56" s="40" t="s">
-        <v>55</v>
+      <c r="D56" s="70"/>
+      <c r="E56" s="50" t="s">
+        <v>289</v>
       </c>
       <c r="G56" s="18" t="s">
         <v>124</v>
@@ -6787,13 +7091,16 @@
       <c r="I56" s="18"/>
       <c r="J56" s="43"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="47"/>
+      <c r="E57" s="50" t="s">
+        <v>224</v>
+      </c>
       <c r="G57" s="18" t="s">
         <v>51</v>
       </c>
@@ -6807,8 +7114,9 @@
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
-      <c r="D58" s="40" t="s">
-        <v>92</v>
+      <c r="D58" s="70"/>
+      <c r="E58" s="50" t="s">
+        <v>269</v>
       </c>
       <c r="G58" s="18" t="s">
         <v>52</v>
@@ -6817,13 +7125,16 @@
       <c r="I58" s="18"/>
       <c r="J58" s="43"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="47"/>
+      <c r="E59" s="50" t="s">
+        <v>231</v>
+      </c>
       <c r="G59" s="18" t="s">
         <v>132</v>
       </c>
@@ -6837,8 +7148,9 @@
       </c>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
-      <c r="D60" s="40" t="s">
-        <v>71</v>
+      <c r="D60" s="70"/>
+      <c r="E60" s="50" t="s">
+        <v>407</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>126</v>
@@ -6854,6 +7166,9 @@
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="47"/>
+      <c r="E61" s="50" t="s">
+        <v>412</v>
+      </c>
       <c r="G61" s="18" t="s">
         <v>90</v>
       </c>
@@ -6869,8 +7184,9 @@
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
-      <c r="D62" s="40" t="s">
-        <v>6</v>
+      <c r="D62" s="70"/>
+      <c r="E62" s="50" t="s">
+        <v>230</v>
       </c>
       <c r="G62" s="18" t="s">
         <v>56</v>
@@ -6886,6 +7202,9 @@
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="47"/>
+      <c r="E63" s="50" t="s">
+        <v>329</v>
+      </c>
       <c r="G63" s="18" t="s">
         <v>122</v>
       </c>
@@ -6902,8 +7221,9 @@
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
-      <c r="D64" s="40" t="s">
-        <v>69</v>
+      <c r="D64" s="70"/>
+      <c r="E64" s="50" t="s">
+        <v>326</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>143</v>
@@ -6915,13 +7235,16 @@
         <v>243</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="47"/>
+      <c r="E65" s="50" t="s">
+        <v>47</v>
+      </c>
       <c r="G65" s="18" t="s">
         <v>104</v>
       </c>
@@ -6936,6 +7259,9 @@
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="47"/>
+      <c r="E66" s="50" t="s">
+        <v>408</v>
+      </c>
       <c r="G66" s="18" t="s">
         <v>92</v>
       </c>
@@ -6952,8 +7278,9 @@
       </c>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
-      <c r="D67" s="40" t="s">
-        <v>93</v>
+      <c r="D67" s="70"/>
+      <c r="E67" s="50" t="s">
+        <v>398</v>
       </c>
       <c r="G67" s="18" t="s">
         <v>115</v>
@@ -6971,8 +7298,9 @@
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
-      <c r="D68" s="40" t="s">
-        <v>60</v>
+      <c r="D68" s="70"/>
+      <c r="E68" s="50" t="s">
+        <v>394</v>
       </c>
       <c r="G68" s="18" t="s">
         <v>22</v>
@@ -6990,8 +7318,9 @@
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
-      <c r="D69" s="40" t="s">
-        <v>16</v>
+      <c r="D69" s="70"/>
+      <c r="E69" s="50" t="s">
+        <v>250</v>
       </c>
       <c r="G69" s="18" t="s">
         <v>148</v>
@@ -7006,8 +7335,9 @@
       </c>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
-      <c r="D70" s="40" t="s">
-        <v>25</v>
+      <c r="D70" s="70"/>
+      <c r="E70" s="50" t="s">
+        <v>378</v>
       </c>
       <c r="G70" s="18" t="s">
         <v>156</v>
@@ -7026,7 +7356,9 @@
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="47"/>
-      <c r="E71" s="49"/>
+      <c r="E71" s="50" t="s">
+        <v>239</v>
+      </c>
       <c r="G71" s="18" t="s">
         <v>77</v>
       </c>
@@ -7044,8 +7376,8 @@
       </c>
       <c r="C72" s="27"/>
       <c r="D72" s="47"/>
-      <c r="E72" s="40" t="s">
-        <v>348</v>
+      <c r="E72" s="50" t="s">
+        <v>249</v>
       </c>
       <c r="G72" s="18" t="s">
         <v>173</v>
@@ -7064,8 +7396,8 @@
       </c>
       <c r="C73" s="27"/>
       <c r="D73" s="47"/>
-      <c r="E73" s="40" t="s">
-        <v>369</v>
+      <c r="E73" s="50" t="s">
+        <v>414</v>
       </c>
       <c r="G73" s="18" t="s">
         <v>144</v>
@@ -7083,11 +7415,9 @@
         <v>210</v>
       </c>
       <c r="C74" s="27"/>
-      <c r="D74" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="E74" s="40" t="s">
-        <v>333</v>
+      <c r="D74" s="70"/>
+      <c r="E74" s="50" t="s">
+        <v>261</v>
       </c>
       <c r="G74" s="18" t="s">
         <v>105</v>
@@ -7102,11 +7432,9 @@
         <v>214</v>
       </c>
       <c r="C75" s="27"/>
-      <c r="D75" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="E75" s="40" t="s">
-        <v>335</v>
+      <c r="D75" s="70"/>
+      <c r="E75" s="50" t="s">
+        <v>406</v>
       </c>
       <c r="G75" s="18" t="s">
         <v>136</v>
@@ -7124,11 +7452,9 @@
         <v>181</v>
       </c>
       <c r="C76" s="27"/>
-      <c r="D76" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="E76" s="40" t="s">
-        <v>353</v>
+      <c r="D76" s="70"/>
+      <c r="E76" s="50" t="s">
+        <v>248</v>
       </c>
       <c r="G76" s="18" t="s">
         <v>113</v>
@@ -7146,11 +7472,9 @@
         <v>206</v>
       </c>
       <c r="C77" s="27"/>
-      <c r="D77" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="E77" s="40" t="s">
-        <v>356</v>
+      <c r="D77" s="70"/>
+      <c r="E77" s="50" t="s">
+        <v>234</v>
       </c>
       <c r="G77" s="18" t="s">
         <v>43</v>
@@ -7169,8 +7493,8 @@
       </c>
       <c r="C78" s="27"/>
       <c r="D78" s="47"/>
-      <c r="E78" s="40" t="s">
-        <v>213</v>
+      <c r="E78" s="50" t="s">
+        <v>411</v>
       </c>
       <c r="G78" s="18" t="s">
         <v>25</v>
@@ -7189,8 +7513,8 @@
       </c>
       <c r="C79" s="27"/>
       <c r="D79" s="47"/>
-      <c r="E79" s="40" t="s">
-        <v>345</v>
+      <c r="E79" s="50" t="s">
+        <v>26</v>
       </c>
       <c r="G79" s="28"/>
       <c r="H79" s="27" t="s">
@@ -7211,8 +7535,8 @@
       </c>
       <c r="C80" s="27"/>
       <c r="D80" s="47"/>
-      <c r="E80" s="40" t="s">
-        <v>362</v>
+      <c r="E80" s="50" t="s">
+        <v>413</v>
       </c>
       <c r="G80" s="28"/>
       <c r="H80" s="27" t="s">
@@ -7233,8 +7557,8 @@
       </c>
       <c r="C81" s="27"/>
       <c r="D81" s="47"/>
-      <c r="E81" s="40" t="s">
-        <v>360</v>
+      <c r="E81" s="50" t="s">
+        <v>285</v>
       </c>
       <c r="G81" s="28"/>
       <c r="H81" s="27" t="s">
@@ -7253,8 +7577,8 @@
       </c>
       <c r="C82" s="27"/>
       <c r="D82" s="47"/>
-      <c r="E82" s="40" t="s">
-        <v>337</v>
+      <c r="E82" s="50" t="s">
+        <v>275</v>
       </c>
       <c r="G82" s="28"/>
       <c r="H82" s="27" t="s">
@@ -7272,11 +7596,9 @@
         <v>204</v>
       </c>
       <c r="C83" s="27"/>
-      <c r="D83" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="E83" s="40" t="s">
-        <v>351</v>
+      <c r="D83" s="70"/>
+      <c r="E83" s="50" t="s">
+        <v>244</v>
       </c>
       <c r="G83" s="28"/>
       <c r="H83" s="27" t="s">
@@ -7295,8 +7617,8 @@
       </c>
       <c r="C84" s="27"/>
       <c r="D84" s="47"/>
-      <c r="E84" s="40" t="s">
-        <v>164</v>
+      <c r="E84" s="50" t="s">
+        <v>258</v>
       </c>
       <c r="G84" s="28"/>
       <c r="H84" s="27" t="s">
@@ -7315,8 +7637,8 @@
       </c>
       <c r="C85" s="27"/>
       <c r="D85" s="47"/>
-      <c r="E85" s="40" t="s">
-        <v>226</v>
+      <c r="E85" s="50" t="s">
+        <v>236</v>
       </c>
       <c r="G85" s="28"/>
       <c r="H85" s="27" t="s">
@@ -7334,11 +7656,9 @@
         <v>198</v>
       </c>
       <c r="C86" s="27"/>
-      <c r="D86" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="E86" s="40" t="s">
-        <v>364</v>
+      <c r="D86" s="70"/>
+      <c r="E86" s="50" t="s">
+        <v>266</v>
       </c>
       <c r="G86" s="28"/>
       <c r="H86" s="27" t="s">
@@ -7356,11 +7676,9 @@
         <v>200</v>
       </c>
       <c r="C87" s="27"/>
-      <c r="D87" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="E87" s="40" t="s">
-        <v>347</v>
+      <c r="D87" s="70"/>
+      <c r="E87" s="50" t="s">
+        <v>389</v>
       </c>
       <c r="G87" s="28"/>
       <c r="H87" s="27" t="s">
@@ -7379,8 +7697,8 @@
       </c>
       <c r="C88" s="27"/>
       <c r="D88" s="47"/>
-      <c r="E88" s="40" t="s">
-        <v>172</v>
+      <c r="E88" s="50" t="s">
+        <v>382</v>
       </c>
       <c r="G88" s="28"/>
       <c r="H88" s="27" t="s">
@@ -7399,8 +7717,8 @@
       </c>
       <c r="C89" s="27"/>
       <c r="D89" s="47"/>
-      <c r="E89" s="40" t="s">
-        <v>359</v>
+      <c r="E89" s="50" t="s">
+        <v>331</v>
       </c>
       <c r="G89" s="28"/>
       <c r="H89" s="27" t="s">
@@ -7419,8 +7737,8 @@
       </c>
       <c r="C90" s="27"/>
       <c r="D90" s="47"/>
-      <c r="E90" s="40" t="s">
-        <v>137</v>
+      <c r="E90" s="50" t="s">
+        <v>402</v>
       </c>
       <c r="G90" s="28"/>
       <c r="H90" s="27" t="s">
@@ -7439,8 +7757,8 @@
       <c r="B91" s="29"/>
       <c r="C91" s="26"/>
       <c r="D91" s="48"/>
-      <c r="E91" s="40" t="s">
-        <v>354</v>
+      <c r="E91" s="50" t="s">
+        <v>199</v>
       </c>
       <c r="G91" s="28"/>
       <c r="H91" s="27" t="s">
@@ -7458,11 +7776,9 @@
       </c>
       <c r="B92" s="29"/>
       <c r="C92" s="26"/>
-      <c r="D92" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E92" s="40" t="s">
-        <v>363</v>
+      <c r="D92" s="70"/>
+      <c r="E92" s="50" t="s">
+        <v>384</v>
       </c>
       <c r="G92" s="28"/>
       <c r="H92" s="27" t="s">
@@ -7481,8 +7797,8 @@
       <c r="B93" s="29"/>
       <c r="C93" s="26"/>
       <c r="D93" s="48"/>
-      <c r="E93" s="40" t="s">
-        <v>338</v>
+      <c r="E93" s="50" t="s">
+        <v>241</v>
       </c>
       <c r="G93" s="28"/>
       <c r="H93" s="27" t="s">
@@ -7503,8 +7819,8 @@
       <c r="B94" s="29"/>
       <c r="C94" s="26"/>
       <c r="D94" s="48"/>
-      <c r="E94" s="40" t="s">
-        <v>357</v>
+      <c r="E94" s="50" t="s">
+        <v>22</v>
       </c>
       <c r="G94" s="28"/>
       <c r="H94" s="27" t="s">
@@ -7522,11 +7838,9 @@
       </c>
       <c r="B95" s="29"/>
       <c r="C95" s="26"/>
-      <c r="D95" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E95" s="40" t="s">
-        <v>350</v>
+      <c r="D95" s="70"/>
+      <c r="E95" s="50" t="s">
+        <v>240</v>
       </c>
       <c r="G95" s="28"/>
       <c r="H95" s="27" t="s">
@@ -7545,8 +7859,8 @@
       <c r="B96" s="29"/>
       <c r="C96" s="26"/>
       <c r="D96" s="48"/>
-      <c r="E96" s="40" t="s">
-        <v>365</v>
+      <c r="E96" s="50" t="s">
+        <v>148</v>
       </c>
       <c r="G96" s="28"/>
       <c r="H96" s="27" t="s">
@@ -7567,8 +7881,8 @@
         <v>5</v>
       </c>
       <c r="D97" s="49"/>
-      <c r="E97" s="40" t="s">
-        <v>125</v>
+      <c r="E97" s="50" t="s">
+        <v>385</v>
       </c>
       <c r="G97" s="28"/>
       <c r="H97" s="27" t="s">
@@ -7588,11 +7902,9 @@
       <c r="C98" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D98" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="E98" s="40" t="s">
-        <v>346</v>
+      <c r="D98" s="70"/>
+      <c r="E98" s="50" t="s">
+        <v>257</v>
       </c>
       <c r="G98" s="28"/>
       <c r="H98" s="27" t="s">
@@ -7613,8 +7925,8 @@
         <v>11</v>
       </c>
       <c r="D99" s="49"/>
-      <c r="E99" s="40" t="s">
-        <v>64</v>
+      <c r="E99" s="50" t="s">
+        <v>387</v>
       </c>
       <c r="G99" s="28"/>
       <c r="H99" s="27" t="s">
@@ -7637,8 +7949,8 @@
         <v>305</v>
       </c>
       <c r="D100" s="49"/>
-      <c r="E100" s="40" t="s">
-        <v>342</v>
+      <c r="E100" s="50" t="s">
+        <v>242</v>
       </c>
       <c r="G100" s="29" t="s">
         <v>140</v>
@@ -7661,8 +7973,8 @@
         <v>309</v>
       </c>
       <c r="D101" s="49"/>
-      <c r="E101" s="40" t="s">
-        <v>334</v>
+      <c r="E101" s="50" t="s">
+        <v>25</v>
       </c>
       <c r="G101" s="29" t="s">
         <v>123</v>
@@ -7685,8 +7997,8 @@
         <v>307</v>
       </c>
       <c r="D102" s="49"/>
-      <c r="E102" s="40" t="s">
-        <v>340</v>
+      <c r="E102" s="50" t="s">
+        <v>366</v>
       </c>
       <c r="G102" s="31" t="s">
         <v>164</v>
@@ -7713,9 +8025,7 @@
         <v>306</v>
       </c>
       <c r="D103" s="49"/>
-      <c r="E103" s="40" t="s">
-        <v>352</v>
-      </c>
+      <c r="E103" s="70"/>
       <c r="G103" s="31" t="s">
         <v>170</v>
       </c>
@@ -7738,12 +8048,8 @@
       <c r="C104" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="D104" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E104" s="40" t="s">
-        <v>355</v>
-      </c>
+      <c r="D104" s="70"/>
+      <c r="E104" s="70"/>
       <c r="G104" s="31" t="s">
         <v>174</v>
       </c>
@@ -7767,9 +8073,7 @@
         <v>303</v>
       </c>
       <c r="D105" s="49"/>
-      <c r="E105" s="40" t="s">
-        <v>341</v>
-      </c>
+      <c r="E105" s="70"/>
       <c r="G105" s="31" t="s">
         <v>175</v>
       </c>
@@ -7788,12 +8092,8 @@
       <c r="C106" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="D106" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="E106" s="40" t="s">
-        <v>349</v>
-      </c>
+      <c r="D106" s="70"/>
+      <c r="E106" s="70"/>
       <c r="G106" s="31" t="s">
         <v>100</v>
       </c>
@@ -7813,9 +8113,7 @@
         <v>302</v>
       </c>
       <c r="D107" s="49"/>
-      <c r="E107" s="40" t="s">
-        <v>358</v>
-      </c>
+      <c r="E107" s="70"/>
       <c r="G107" s="31" t="s">
         <v>97</v>
       </c>
@@ -7834,12 +8132,8 @@
       <c r="C108" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="D108" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E108" s="40" t="s">
-        <v>110</v>
-      </c>
+      <c r="D108" s="70"/>
+      <c r="E108" s="70"/>
       <c r="G108" s="31" t="s">
         <v>142</v>
       </c>
@@ -7857,9 +8151,7 @@
       <c r="B109" s="26"/>
       <c r="C109" s="26"/>
       <c r="D109" s="48"/>
-      <c r="E109" s="40" t="s">
-        <v>343</v>
-      </c>
+      <c r="E109" s="70"/>
       <c r="G109" s="31" t="s">
         <v>168</v>
       </c>
@@ -7876,12 +8168,8 @@
       </c>
       <c r="B110" s="26"/>
       <c r="C110" s="26"/>
-      <c r="D110" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E110" s="40" t="s">
-        <v>370</v>
-      </c>
+      <c r="D110" s="70"/>
+      <c r="E110" s="70"/>
       <c r="G110" s="31" t="s">
         <v>152</v>
       </c>
@@ -7898,12 +8186,8 @@
       </c>
       <c r="B111" s="26"/>
       <c r="C111" s="26"/>
-      <c r="D111" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E111" s="40" t="s">
-        <v>339</v>
-      </c>
+      <c r="D111" s="70"/>
+      <c r="E111" s="70"/>
       <c r="G111" s="31" t="s">
         <v>151</v>
       </c>
@@ -7920,12 +8204,8 @@
       </c>
       <c r="B112" s="26"/>
       <c r="C112" s="26"/>
-      <c r="D112" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="E112" s="40" t="s">
-        <v>361</v>
-      </c>
+      <c r="D112" s="70"/>
+      <c r="E112" s="70"/>
       <c r="G112" s="31" t="s">
         <v>35</v>
       </c>
@@ -7943,9 +8223,7 @@
       <c r="B113" s="26"/>
       <c r="C113" s="26"/>
       <c r="D113" s="48"/>
-      <c r="E113" s="40" t="s">
-        <v>332</v>
-      </c>
+      <c r="E113" s="70"/>
       <c r="G113" s="31" t="s">
         <v>33</v>
       </c>
@@ -7963,9 +8241,7 @@
       <c r="B114" s="26"/>
       <c r="C114" s="26"/>
       <c r="D114" s="48"/>
-      <c r="E114" s="40" t="s">
-        <v>127</v>
-      </c>
+      <c r="E114" s="70"/>
       <c r="G114" s="31" t="s">
         <v>171</v>
       </c>
@@ -7983,9 +8259,7 @@
       <c r="B115" s="26"/>
       <c r="C115" s="26"/>
       <c r="D115" s="48"/>
-      <c r="E115" s="40" t="s">
-        <v>36</v>
-      </c>
+      <c r="E115" s="70"/>
       <c r="G115" s="31" t="s">
         <v>165</v>
       </c>
@@ -8003,9 +8277,7 @@
       <c r="B116" s="26"/>
       <c r="C116" s="26"/>
       <c r="D116" s="48"/>
-      <c r="E116" s="40" t="s">
-        <v>344</v>
-      </c>
+      <c r="E116" s="70"/>
       <c r="G116" s="31" t="s">
         <v>166</v>
       </c>
@@ -8023,9 +8295,7 @@
       <c r="B117" s="26"/>
       <c r="C117" s="26"/>
       <c r="D117" s="48"/>
-      <c r="E117" s="40" t="s">
-        <v>148</v>
-      </c>
+      <c r="E117" s="70"/>
       <c r="G117" s="31" t="s">
         <v>135</v>
       </c>
@@ -8043,9 +8313,7 @@
       <c r="B118" s="26"/>
       <c r="C118" s="26"/>
       <c r="D118" s="48"/>
-      <c r="E118" s="40" t="s">
-        <v>156</v>
-      </c>
+      <c r="E118" s="70"/>
       <c r="G118" s="31" t="s">
         <v>162</v>
       </c>
@@ -8063,9 +8331,7 @@
       <c r="B119" s="26"/>
       <c r="C119" s="26"/>
       <c r="D119" s="48"/>
-      <c r="E119" s="40" t="s">
-        <v>368</v>
-      </c>
+      <c r="E119" s="70"/>
       <c r="G119" s="31" t="s">
         <v>167</v>
       </c>
@@ -8083,9 +8349,7 @@
       <c r="B120" s="26"/>
       <c r="C120" s="26"/>
       <c r="D120" s="48"/>
-      <c r="E120" s="40" t="s">
-        <v>366</v>
-      </c>
+      <c r="E120" s="70"/>
       <c r="G120" s="31" t="s">
         <v>153</v>
       </c>
@@ -8103,9 +8367,7 @@
       <c r="B121" s="26"/>
       <c r="C121" s="26"/>
       <c r="D121" s="48"/>
-      <c r="E121" s="40" t="s">
-        <v>336</v>
-      </c>
+      <c r="E121" s="70"/>
       <c r="G121" s="31" t="s">
         <v>127</v>
       </c>
@@ -8123,9 +8385,7 @@
       <c r="B122" s="35"/>
       <c r="C122" s="35"/>
       <c r="D122" s="46"/>
-      <c r="E122" s="40" t="s">
-        <v>367</v>
-      </c>
+      <c r="E122" s="70"/>
       <c r="G122" s="31" t="s">
         <v>146</v>
       </c>
@@ -8541,7 +8801,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8552,26 +8811,26 @@
   </sheetPr>
   <dimension ref="A1:L196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="I197" sqref="I197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" customWidth="1"/>
     <col min="11" max="11" width="6.1640625" customWidth="1"/>
     <col min="12" max="12" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
       <c r="F1" s="67" t="s">
         <v>314</v>
       </c>
@@ -8580,7 +8839,7 @@
       <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:12" ht="28" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>375</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -8589,10 +8848,10 @@
       <c r="C2" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="52" t="s">
         <v>325</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="52" t="s">
         <v>375</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -8601,7 +8860,7 @@
       <c r="H2" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="52" t="s">
         <v>371</v>
       </c>
     </row>
@@ -11437,7 +11696,7 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="23" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
